--- a/server/upload/report_01.xlsx
+++ b/server/upload/report_01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="adx打底模板批量输出(年后new)" sheetId="1" r:id="rId1"/>
+    <sheet name="xxx.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/server/upload/report_01.xlsx
+++ b/server/upload/report_01.xlsx
@@ -1,25 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookProtection workbookPassword="8626" lockStructure="1"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+  </bookViews>
   <sheets>
-    <sheet name="xxx.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>keywordId</t>
+  </si>
+  <si>
+    <t>groupIdadGroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggested</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2wqew23232wqe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2wqew23232wqe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2wqew23232wqe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasas232ewe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasas232ewe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasas232ewe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF5871F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,19 +114,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -198,16 +281,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -329,128 +416,126 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="8626" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>groupIdadGroupId</v>
-      </c>
-      <c r="B1" t="str">
-        <v>keywordId</v>
-      </c>
-      <c r="C1" t="str">
-        <v>rangeEnd</v>
-      </c>
-      <c r="D1" t="str">
-        <v>rangeStart</v>
-      </c>
-      <c r="E1" t="str">
-        <v>suggested</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2wqew23232wqed1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>sasas232ewe1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2wqew23232wqed2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>sasas232ewe2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2wqew23232wqed3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>sasas232ewe3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
-  </ignoredErrors>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/server/upload/report_01.xlsx
+++ b/server/upload/report_01.xlsx
@@ -1,97 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <workbookProtection workbookPassword="8626" lockStructure="1"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="xxx.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>keywordId</t>
-  </si>
-  <si>
-    <t>groupIdadGroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rangeEnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rangeStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suggested</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2wqew23232wqe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2wqew23232wqe2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2wqew23232wqe3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sasas232ewe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sasas232ewe2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sasas232ewe3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4D4D4C"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFF5871F"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,30 +42,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -281,20 +198,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -416,126 +329,128 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.21</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection password="8626" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>groupIdadGroupId</v>
+      </c>
+      <c r="B1" t="str">
+        <v>keywordId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>rangeEnd</v>
+      </c>
+      <c r="D1" t="str">
+        <v>rangeStart</v>
+      </c>
+      <c r="E1" t="str">
+        <v>suggested</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2wqew23232wqed1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>sasas232ewe1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2wqew23232wqed2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>sasas232ewe2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2wqew23232wqed3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>sasas232ewe3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+  </ignoredErrors>
 </worksheet>
 </file>